--- a/statistics assessment/statistics assessment 2.xlsx
+++ b/statistics assessment/statistics assessment 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\OneDrive\Documents\GitHub\statistics\statistics assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F05499-40F7-4FEA-825C-F659A3181E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A955546-1C70-4BD6-A052-1E1E12A41DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9C00EAEC-CA0B-405D-98CD-CF4BBEFFB891}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9C00EAEC-CA0B-405D-98CD-CF4BBEFFB891}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t xml:space="preserve">2007 figures </t>
   </si>
@@ -148,6 +148,15 @@
   </si>
   <si>
     <t xml:space="preserve">Sample Variance </t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>standard deviation</t>
+  </si>
+  <si>
+    <t>median</t>
   </si>
 </sst>
 </file>
@@ -235,19 +244,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -255,12 +262,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B154C99D-7C0C-4D7E-A268-1EE1D15C8C74}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:P60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,47 +608,47 @@
     <col min="10" max="10" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="D1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="D4" s="6" t="s">
+      <c r="B4" s="12"/>
+      <c r="D4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="G4" s="6" t="s">
+      <c r="E4" s="12"/>
+      <c r="G4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="D5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -646,7 +668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>39083</v>
       </c>
@@ -666,7 +688,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>39114</v>
       </c>
@@ -686,7 +708,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>39142</v>
       </c>
@@ -706,7 +728,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>39173</v>
       </c>
@@ -725,8 +747,14 @@
       <c r="H10" s="3">
         <v>16500</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" s="16"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>39203</v>
       </c>
@@ -745,8 +773,14 @@
       <c r="H11" s="3">
         <v>20000</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" s="14"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>39234</v>
       </c>
@@ -765,8 +799,13 @@
       <c r="H12" s="3">
         <v>12500</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" s="14"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="15"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>39264</v>
       </c>
@@ -785,8 +824,13 @@
       <c r="H13" s="3">
         <v>14000</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" s="14"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="15"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>39295</v>
       </c>
@@ -805,8 +849,11 @@
       <c r="H14" s="3">
         <v>18500</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>39326</v>
       </c>
@@ -825,8 +872,14 @@
       <c r="H15" s="3">
         <v>14500</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15" s="16"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>39356</v>
       </c>
@@ -845,8 +898,14 @@
       <c r="H16" s="3">
         <v>13000</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K16" s="14"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>39387</v>
       </c>
@@ -865,8 +924,14 @@
       <c r="H17" s="3">
         <v>13000</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K17" s="14"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>39417</v>
       </c>
@@ -885,13 +950,19 @@
       <c r="H18" s="3">
         <v>17000</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K18" s="14"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="D19" s="5"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="8" t="s">
         <v>8</v>
@@ -903,252 +974,541 @@
       </c>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A22" s="11" t="s">
+    <row r="21" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="20"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="21"/>
+      <c r="G21" s="20"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B22" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B23" s="14">
+        <v>2007</v>
+      </c>
+      <c r="C23" s="18">
+        <v>14625</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="14">
+        <v>2007</v>
+      </c>
+      <c r="F23" s="18">
+        <v>2390.3015848772443</v>
+      </c>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B24" s="14">
+        <v>2008</v>
+      </c>
+      <c r="C24" s="18">
+        <v>14708.333333333334</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="14">
+        <v>2008</v>
+      </c>
+      <c r="F24" s="18">
+        <v>2711.5365672539906</v>
+      </c>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B25" s="14">
+        <v>2009</v>
+      </c>
+      <c r="C25" s="18">
+        <v>15083.333333333334</v>
+      </c>
+      <c r="D25" s="18"/>
+      <c r="E25" s="14">
+        <v>2009</v>
+      </c>
+      <c r="F25" s="18">
+        <v>2307.8970706877049</v>
+      </c>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B27" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B28" s="14">
+        <v>2007</v>
+      </c>
+      <c r="C28" s="18">
+        <v>14750</v>
+      </c>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B29" s="14">
+        <v>2008</v>
+      </c>
+      <c r="C29" s="18">
+        <v>15250</v>
+      </c>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B30" s="14">
+        <v>2009</v>
+      </c>
+      <c r="C30" s="18">
+        <v>14250</v>
+      </c>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="A33" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A24" s="7" t="s">
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="A35" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="D24" s="7" t="s">
+      <c r="B35" s="13"/>
+      <c r="D35" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="G24" s="7" t="s">
+      <c r="E35" s="13"/>
+      <c r="G35" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="3">
-        <v>176</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="3">
-        <v>179</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" s="3">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="3">
-        <v>174</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="3">
-        <v>173</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H28" s="3">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="3">
-        <v>181</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="3">
-        <v>184</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H29" s="3">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="3">
-        <v>178</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="3">
-        <v>175</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H30" s="3">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="3">
-        <v>183</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="3">
-        <v>172</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H31" s="3">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="3">
-        <v>176</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="3">
-        <v>176</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H32" s="3">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="3">
-        <v>177</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="3">
-        <v>177</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H33" s="3">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
+      <c r="H35" s="13"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
-      <c r="B36" s="8" t="s">
+      <c r="D36" s="5"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="3">
+        <v>176</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="3">
+        <v>179</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" s="3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="3">
+        <v>174</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="3">
+        <v>173</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" s="3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="3">
+        <v>181</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="3">
+        <v>184</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H40" s="3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="3">
+        <v>178</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="3">
+        <v>175</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H41" s="3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="3">
+        <v>183</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="3">
+        <v>172</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H42" s="3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="3">
+        <v>176</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="3">
+        <v>176</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43" s="3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="3">
+        <v>177</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="3">
+        <v>177</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H44" s="3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="5"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="5"/>
+      <c r="B47" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="3">
-        <f>_xlfn.VAR.S(B27:B33,E27:E33,H27:H33)</f>
+      <c r="C47" s="9"/>
+      <c r="D47" s="3">
+        <f>_xlfn.VAR.S(B38:B44,E38:E44,H38:H44)</f>
         <v>9.2619047619047628</v>
       </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" s="15"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="18">
+        <v>177.85714285714286</v>
+      </c>
+      <c r="D51" s="18"/>
+      <c r="E51" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="18">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" s="18">
+        <v>176.57142857142858</v>
+      </c>
+      <c r="D52" s="18"/>
+      <c r="E52" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="18">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="18">
+        <v>178</v>
+      </c>
+      <c r="D53" s="18"/>
+      <c r="E53" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" s="18">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="18">
+        <v>3.1320159337914948</v>
+      </c>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="18">
+        <v>4.035556254807295</v>
+      </c>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" s="18">
+        <v>1.8257418583505538</v>
+      </c>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="A33:H33"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="G35:H35"/>
     <mergeCell ref="B20:C20"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
